--- a/GradeDistributionsDB/Spring2013/Output/Spring2013 VM.xlsx
+++ b/GradeDistributionsDB/Spring2013/Output/Spring2013 VM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="369">
   <si>
     <t>Course</t>
   </si>
@@ -181,6 +181,51 @@
     <t>0.85%</t>
   </si>
   <si>
+    <t>VIBS-413</t>
+  </si>
+  <si>
+    <t>HAMER S</t>
+  </si>
+  <si>
+    <t>41.67%</t>
+  </si>
+  <si>
+    <t>50.00%</t>
+  </si>
+  <si>
+    <t>4.17%</t>
+  </si>
+  <si>
+    <t>VIBS-420</t>
+  </si>
+  <si>
+    <t>SNELL J</t>
+  </si>
+  <si>
+    <t>96.43%</t>
+  </si>
+  <si>
+    <t>3.57%</t>
+  </si>
+  <si>
+    <t>VIBS-443</t>
+  </si>
+  <si>
+    <t>JOHNSON L</t>
+  </si>
+  <si>
+    <t>46.34%</t>
+  </si>
+  <si>
+    <t>29.27%</t>
+  </si>
+  <si>
+    <t>19.51%</t>
+  </si>
+  <si>
+    <t>4.88%</t>
+  </si>
+  <si>
     <t>VIBS-450</t>
   </si>
   <si>
@@ -400,18 +445,30 @@
     <t>64.10%</t>
   </si>
   <si>
+    <t>VLCS-932</t>
+  </si>
+  <si>
+    <t>BISSETT W</t>
+  </si>
+  <si>
+    <t>55.56%</t>
+  </si>
+  <si>
+    <t>44.44%</t>
+  </si>
+  <si>
     <t>VLCS-948</t>
   </si>
   <si>
+    <t>WASHBURN K</t>
+  </si>
+  <si>
     <t>HARDY J</t>
   </si>
   <si>
     <t>CHAFFIN M</t>
   </si>
   <si>
-    <t>BISSETT W</t>
-  </si>
-  <si>
     <t>91.67%</t>
   </si>
   <si>
@@ -421,6 +478,9 @@
     <t>SCHMITZ D</t>
   </si>
   <si>
+    <t>ARNOLD C</t>
+  </si>
+  <si>
     <t>DABAREINER R</t>
   </si>
   <si>
@@ -547,6 +607,12 @@
     <t>HOPPES S</t>
   </si>
   <si>
+    <t>BEAVER B</t>
+  </si>
+  <si>
+    <t>BRIGHTSMITH D</t>
+  </si>
+  <si>
     <t>ZORAN D</t>
   </si>
   <si>
@@ -568,6 +634,15 @@
     <t>ROGERS K</t>
   </si>
   <si>
+    <t>AUGUST J</t>
+  </si>
+  <si>
+    <t>76.25%</t>
+  </si>
+  <si>
+    <t>23.75%</t>
+  </si>
+  <si>
     <t>WILLARD M</t>
   </si>
   <si>
@@ -598,7 +673,7 @@
     <t>3.64%</t>
   </si>
   <si>
-    <t>BRIGHTSMITH D</t>
+    <t>MILLER M</t>
   </si>
   <si>
     <t>VSCS-953</t>
@@ -646,6 +721,30 @@
     <t>ZHU G</t>
   </si>
   <si>
+    <t>VTPB-221</t>
+  </si>
+  <si>
+    <t>MUSSER J</t>
+  </si>
+  <si>
+    <t>OMRAN M</t>
+  </si>
+  <si>
+    <t>33.57%</t>
+  </si>
+  <si>
+    <t>35.71%</t>
+  </si>
+  <si>
+    <t>18.57%</t>
+  </si>
+  <si>
+    <t>5.00%</t>
+  </si>
+  <si>
+    <t>7.14%</t>
+  </si>
+  <si>
     <t>VTPB-334</t>
   </si>
   <si>
@@ -670,9 +769,6 @@
     <t>SCANLAN C</t>
   </si>
   <si>
-    <t>50.00%</t>
-  </si>
-  <si>
     <t>45.35%</t>
   </si>
   <si>
@@ -772,9 +868,6 @@
     <t>VTPB-913</t>
   </si>
   <si>
-    <t>MUSSER J</t>
-  </si>
-  <si>
     <t>40.46%</t>
   </si>
   <si>
@@ -929,9 +1022,6 @@
   </si>
   <si>
     <t>95.83%</t>
-  </si>
-  <si>
-    <t>4.17%</t>
   </si>
   <si>
     <t>GOLDING M</t>
@@ -1367,7 +1457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H256"/>
+  <dimension ref="A1:H277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1699,7 +1789,7 @@
         <v>56</v>
       </c>
       <c r="C28" t="n">
-        <v>3.833</v>
+        <v>3.25</v>
       </c>
       <c r="D28" t="s">
         <v>57</v>
@@ -1708,32 +1798,32 @@
         <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3.9645</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
@@ -1747,90 +1837,49 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="B34" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3.1455</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="B35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" t="n">
-        <v>3.889</v>
-      </c>
-      <c r="D35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="36" spans="1:8">
-      <c r="B36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" t="n">
-        <v>3.667</v>
-      </c>
-      <c r="D36" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" t="s">
-        <v>13</v>
+      <c r="A36" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="B37" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C37" t="n">
-        <v>3.857</v>
+        <v>3.833</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E37" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
@@ -1844,21 +1893,21 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="B40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
@@ -1880,41 +1929,82 @@
         <v>76</v>
       </c>
       <c r="C43" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="D43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="B44" t="s">
         <v>77</v>
       </c>
-      <c r="E43" t="s">
+      <c r="C44" t="n">
+        <v>3.889</v>
+      </c>
+      <c r="D44" t="s">
         <v>78</v>
       </c>
-      <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="E44" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>79</v>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="D45" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3.857</v>
       </c>
       <c r="D46" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -1928,24 +2018,24 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="B49" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="C49" t="n">
-        <v>3.79</v>
+        <v>3.9</v>
       </c>
       <c r="D49" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E49" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F49" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
         <v>13</v>
@@ -1956,21 +2046,21 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="B52" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C52" t="n">
-        <v>3.667</v>
+        <v>3.85</v>
       </c>
       <c r="D52" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="E52" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
@@ -1984,21 +2074,21 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="B55" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C55" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E55" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="F55" t="s">
         <v>13</v>
@@ -2012,24 +2102,24 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="B58" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3.79</v>
       </c>
       <c r="D58" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="G58" t="s">
         <v>13</v>
@@ -2040,154 +2130,154 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="B61" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C61" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="D61" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" t="s">
+        <v>82</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="B64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>103</v>
+      </c>
+      <c r="E64" t="s">
+        <v>104</v>
+      </c>
+      <c r="F64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="B67" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" t="n">
         <v>4</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D67" t="s">
         <v>40</v>
       </c>
-      <c r="E61" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="B62" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" t="n">
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="B70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" t="n">
         <v>4</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D70" t="s">
         <v>40</v>
       </c>
-      <c r="E62" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="B63" t="s">
-        <v>93</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3.857</v>
-      </c>
-      <c r="D63" t="s">
-        <v>69</v>
-      </c>
-      <c r="E63" t="s">
-        <v>70</v>
-      </c>
-      <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="B66" t="s">
-        <v>95</v>
-      </c>
-      <c r="C66" t="n">
-        <v>2.866</v>
-      </c>
-      <c r="D66" t="s">
-        <v>96</v>
-      </c>
-      <c r="E66" t="s">
-        <v>97</v>
-      </c>
-      <c r="F66" t="s">
-        <v>98</v>
-      </c>
-      <c r="G66" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="B69" t="s">
-        <v>101</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3.276</v>
-      </c>
-      <c r="D69" t="s">
-        <v>102</v>
-      </c>
-      <c r="E69" t="s">
-        <v>103</v>
-      </c>
-      <c r="F69" t="s">
-        <v>104</v>
-      </c>
-      <c r="G69" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" t="s">
-        <v>105</v>
+      <c r="B71" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" t="n">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="B72" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C72" t="n">
-        <v>3.664</v>
+        <v>3.857</v>
       </c>
       <c r="D72" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="E72" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="F72" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
         <v>13</v>
@@ -2198,15 +2288,15 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="B75" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C75" t="n">
-        <v>3.656</v>
+        <v>2.866</v>
       </c>
       <c r="D75" t="s">
         <v>111</v>
@@ -2221,136 +2311,136 @@
         <v>13</v>
       </c>
       <c r="H75" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="B78" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C78" t="n">
+        <v>3.276</v>
+      </c>
+      <c r="D78" t="s">
+        <v>117</v>
+      </c>
+      <c r="E78" t="s">
+        <v>118</v>
+      </c>
+      <c r="F78" t="s">
+        <v>119</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="B81" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3.664</v>
+      </c>
+      <c r="D81" t="s">
+        <v>122</v>
+      </c>
+      <c r="E81" t="s">
+        <v>123</v>
+      </c>
+      <c r="F81" t="s">
+        <v>124</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="B84" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3.656</v>
+      </c>
+      <c r="D84" t="s">
+        <v>126</v>
+      </c>
+      <c r="E84" t="s">
+        <v>127</v>
+      </c>
+      <c r="F84" t="s">
+        <v>128</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="B87" t="s">
+        <v>110</v>
+      </c>
+      <c r="C87" t="n">
         <v>3.533</v>
       </c>
-      <c r="D78" t="s">
-        <v>115</v>
-      </c>
-      <c r="E78" t="s">
-        <v>116</v>
-      </c>
-      <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="B79" t="s">
-        <v>117</v>
-      </c>
-      <c r="C79" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="D79" t="s">
-        <v>57</v>
-      </c>
-      <c r="E79" t="s">
-        <v>58</v>
-      </c>
-      <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="B82" t="s">
-        <v>119</v>
-      </c>
-      <c r="C82" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D82" t="s">
-        <v>120</v>
-      </c>
-      <c r="E82" t="s">
-        <v>20</v>
-      </c>
-      <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s">
-        <v>13</v>
-      </c>
-      <c r="H82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="B85" t="s">
-        <v>122</v>
-      </c>
-      <c r="C85" t="n">
-        <v>3.629</v>
-      </c>
-      <c r="D85" t="s">
-        <v>123</v>
-      </c>
-      <c r="E85" t="s">
-        <v>124</v>
-      </c>
-      <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" t="s">
-        <v>125</v>
+      <c r="D87" t="s">
+        <v>130</v>
+      </c>
+      <c r="E87" t="s">
+        <v>131</v>
+      </c>
+      <c r="F87" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="B88" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C88" t="n">
-        <v>3.103</v>
+        <v>3.833</v>
       </c>
       <c r="D88" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="E88" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="F88" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
         <v>13</v>
@@ -2361,21 +2451,21 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="B91" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D91" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="E91" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F91" t="s">
         <v>13</v>
@@ -2387,444 +2477,444 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
-      <c r="B92" t="s">
-        <v>130</v>
-      </c>
-      <c r="C92" t="n">
-        <v>4</v>
-      </c>
-      <c r="D92" t="s">
-        <v>40</v>
-      </c>
-      <c r="E92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="93" spans="1:8">
-      <c r="B93" t="s">
-        <v>131</v>
-      </c>
-      <c r="C93" t="n">
-        <v>3.923</v>
-      </c>
-      <c r="D93" t="s">
-        <v>132</v>
-      </c>
-      <c r="E93" t="s">
-        <v>133</v>
-      </c>
-      <c r="F93" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" t="s">
-        <v>13</v>
+      <c r="A93" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="B94" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C94" t="n">
+        <v>3.629</v>
+      </c>
+      <c r="D94" t="s">
+        <v>138</v>
+      </c>
+      <c r="E94" t="s">
+        <v>139</v>
+      </c>
+      <c r="F94" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="B97" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" t="n">
+        <v>3.103</v>
+      </c>
+      <c r="D97" t="s">
+        <v>29</v>
+      </c>
+      <c r="E97" t="s">
+        <v>142</v>
+      </c>
+      <c r="F97" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="B100" t="s">
+        <v>144</v>
+      </c>
+      <c r="C100" t="n">
+        <v>3.556</v>
+      </c>
+      <c r="D100" t="s">
+        <v>145</v>
+      </c>
+      <c r="E100" t="s">
+        <v>146</v>
+      </c>
+      <c r="F100" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="B103" t="s">
+        <v>148</v>
+      </c>
+      <c r="C103" t="n">
         <v>4</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D103" t="s">
         <v>40</v>
       </c>
-      <c r="E94" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="B95" t="s">
-        <v>135</v>
-      </c>
-      <c r="C95" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="D95" t="s">
-        <v>69</v>
-      </c>
-      <c r="E95" t="s">
-        <v>136</v>
-      </c>
-      <c r="F95" t="s">
-        <v>137</v>
-      </c>
-      <c r="G95" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="B98" t="s">
-        <v>139</v>
-      </c>
-      <c r="C98" t="n">
-        <v>4</v>
-      </c>
-      <c r="D98" t="s">
-        <v>40</v>
-      </c>
-      <c r="E98" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="B101" t="s">
-        <v>141</v>
-      </c>
-      <c r="C101" t="n">
-        <v>3.933</v>
-      </c>
-      <c r="D101" t="s">
-        <v>142</v>
-      </c>
-      <c r="E101" t="s">
-        <v>143</v>
-      </c>
-      <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" t="s">
-        <v>144</v>
+      <c r="E103" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="B104" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C104" t="n">
-        <v>2.624</v>
+        <v>4</v>
       </c>
       <c r="D104" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="E104" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="H104" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="105" spans="1:8">
+      <c r="B105" t="s">
+        <v>150</v>
+      </c>
+      <c r="C105" t="n">
+        <v>4</v>
+      </c>
+      <c r="D105" t="s">
+        <v>40</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="106" spans="1:8">
-      <c r="A106" t="s">
-        <v>148</v>
+      <c r="B106" t="s">
+        <v>144</v>
+      </c>
+      <c r="C106" t="n">
+        <v>3.923</v>
+      </c>
+      <c r="D106" t="s">
+        <v>151</v>
+      </c>
+      <c r="E106" t="s">
+        <v>152</v>
+      </c>
+      <c r="F106" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
+      <c r="H106" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="B107" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C107" t="n">
+        <v>4</v>
+      </c>
+      <c r="D107" t="s">
+        <v>40</v>
+      </c>
+      <c r="E107" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="B108" t="s">
+        <v>154</v>
+      </c>
+      <c r="C108" t="n">
+        <v>4</v>
+      </c>
+      <c r="D108" t="s">
+        <v>40</v>
+      </c>
+      <c r="E108" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="B109" t="s">
+        <v>155</v>
+      </c>
+      <c r="C109" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="D109" t="s">
+        <v>84</v>
+      </c>
+      <c r="E109" t="s">
+        <v>156</v>
+      </c>
+      <c r="F109" t="s">
+        <v>157</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="B112" t="s">
+        <v>159</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4</v>
+      </c>
+      <c r="D112" t="s">
+        <v>40</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="B115" t="s">
+        <v>161</v>
+      </c>
+      <c r="C115" t="n">
+        <v>3.933</v>
+      </c>
+      <c r="D115" t="s">
+        <v>162</v>
+      </c>
+      <c r="E115" t="s">
+        <v>163</v>
+      </c>
+      <c r="F115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
+      <c r="H115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="B118" t="s">
+        <v>165</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2.624</v>
+      </c>
+      <c r="D118" t="s">
+        <v>114</v>
+      </c>
+      <c r="E118" t="s">
+        <v>166</v>
+      </c>
+      <c r="F118" t="s">
+        <v>167</v>
+      </c>
+      <c r="G118" t="s">
+        <v>114</v>
+      </c>
+      <c r="H118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="B121" t="s">
+        <v>169</v>
+      </c>
+      <c r="C121" t="n">
         <v>3.405</v>
       </c>
-      <c r="D107" t="s">
-        <v>150</v>
-      </c>
-      <c r="E107" t="s">
-        <v>151</v>
-      </c>
-      <c r="F107" t="s">
-        <v>152</v>
-      </c>
-      <c r="G107" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="B110" t="s">
-        <v>154</v>
-      </c>
-      <c r="C110" t="n">
+      <c r="D121" t="s">
+        <v>170</v>
+      </c>
+      <c r="E121" t="s">
+        <v>171</v>
+      </c>
+      <c r="F121" t="s">
+        <v>172</v>
+      </c>
+      <c r="G121" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="B124" t="s">
+        <v>174</v>
+      </c>
+      <c r="C124" t="n">
         <v>3.397</v>
       </c>
-      <c r="D110" t="s">
-        <v>155</v>
-      </c>
-      <c r="E110" t="s">
-        <v>156</v>
-      </c>
-      <c r="F110" t="s">
-        <v>157</v>
-      </c>
-      <c r="G110" t="s">
-        <v>113</v>
-      </c>
-      <c r="H110" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="B113" t="s">
-        <v>159</v>
-      </c>
-      <c r="C113" t="n">
+      <c r="D124" t="s">
+        <v>175</v>
+      </c>
+      <c r="E124" t="s">
+        <v>176</v>
+      </c>
+      <c r="F124" t="s">
+        <v>177</v>
+      </c>
+      <c r="G124" t="s">
+        <v>128</v>
+      </c>
+      <c r="H124" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="B127" t="s">
+        <v>179</v>
+      </c>
+      <c r="C127" t="n">
         <v>3.288</v>
       </c>
-      <c r="D113" t="s">
-        <v>160</v>
-      </c>
-      <c r="E113" t="s">
-        <v>161</v>
-      </c>
-      <c r="F113" t="s">
-        <v>162</v>
-      </c>
-      <c r="G113" t="s">
-        <v>113</v>
-      </c>
-      <c r="H113" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="B116" t="s">
-        <v>164</v>
-      </c>
-      <c r="C116" t="n">
-        <v>3.602</v>
-      </c>
-      <c r="D116" t="s">
-        <v>165</v>
-      </c>
-      <c r="E116" t="s">
-        <v>166</v>
-      </c>
-      <c r="F116" t="s">
-        <v>167</v>
-      </c>
-      <c r="G116" t="s">
-        <v>13</v>
-      </c>
-      <c r="H116" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="B119" t="s">
-        <v>169</v>
-      </c>
-      <c r="C119" t="n">
-        <v>4</v>
-      </c>
-      <c r="D119" t="s">
-        <v>40</v>
-      </c>
-      <c r="E119" t="s">
-        <v>13</v>
-      </c>
-      <c r="F119" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" t="s">
-        <v>13</v>
-      </c>
-      <c r="H119" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="B122" t="s">
-        <v>171</v>
-      </c>
-      <c r="C122" t="n">
-        <v>4</v>
-      </c>
-      <c r="D122" t="s">
-        <v>40</v>
-      </c>
-      <c r="E122" t="s">
-        <v>13</v>
-      </c>
-      <c r="F122" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" t="s">
-        <v>13</v>
-      </c>
-      <c r="H122" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="B125" t="s">
-        <v>173</v>
-      </c>
-      <c r="C125" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="D125" t="s">
-        <v>57</v>
-      </c>
-      <c r="E125" t="s">
-        <v>58</v>
-      </c>
-      <c r="F125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" t="s">
-        <v>13</v>
-      </c>
-      <c r="H125" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="B128" t="s">
-        <v>175</v>
-      </c>
-      <c r="C128" t="n">
-        <v>4</v>
-      </c>
-      <c r="D128" t="s">
-        <v>40</v>
-      </c>
-      <c r="E128" t="s">
-        <v>13</v>
-      </c>
-      <c r="F128" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128" t="s">
-        <v>13</v>
-      </c>
-      <c r="H128" t="s">
+      <c r="D127" t="s">
+        <v>180</v>
+      </c>
+      <c r="E127" t="s">
+        <v>181</v>
+      </c>
+      <c r="F127" t="s">
+        <v>182</v>
+      </c>
+      <c r="G127" t="s">
+        <v>128</v>
+      </c>
+      <c r="H127" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="B129" t="s">
-        <v>176</v>
-      </c>
-      <c r="C129" t="n">
-        <v>4</v>
-      </c>
-      <c r="D129" t="s">
-        <v>40</v>
-      </c>
-      <c r="E129" t="s">
-        <v>13</v>
-      </c>
-      <c r="F129" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" t="s">
-        <v>13</v>
-      </c>
-      <c r="H129" t="s">
-        <v>13</v>
+      <c r="A129" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="B130" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C130" t="n">
-        <v>3.729</v>
+        <v>3.602</v>
       </c>
       <c r="D130" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E130" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F130" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="G130" t="s">
         <v>13</v>
@@ -2833,55 +2923,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
-      <c r="B131" t="s">
-        <v>180</v>
-      </c>
-      <c r="C131" t="n">
-        <v>3.881</v>
-      </c>
-      <c r="D131" t="s">
-        <v>181</v>
-      </c>
-      <c r="E131" t="s">
-        <v>182</v>
-      </c>
-      <c r="F131" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" t="s">
-        <v>13</v>
-      </c>
-      <c r="H131" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="132" spans="1:8">
-      <c r="B132" t="s">
-        <v>183</v>
-      </c>
-      <c r="C132" t="n">
-        <v>4</v>
-      </c>
-      <c r="D132" t="s">
-        <v>40</v>
-      </c>
-      <c r="E132" t="s">
-        <v>13</v>
-      </c>
-      <c r="F132" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" t="s">
-        <v>13</v>
-      </c>
-      <c r="H132" t="s">
-        <v>13</v>
+      <c r="A132" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="B133" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C133" t="n">
         <v>4</v>
@@ -2902,50 +2951,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
-      <c r="B134" t="s">
-        <v>185</v>
-      </c>
-      <c r="C134" t="n">
-        <v>3.7265</v>
-      </c>
-      <c r="D134" t="s">
-        <v>186</v>
-      </c>
-      <c r="E134" t="s">
-        <v>187</v>
-      </c>
-      <c r="F134" t="s">
-        <v>13</v>
-      </c>
-      <c r="G134" t="s">
-        <v>13</v>
-      </c>
-      <c r="H134" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="135" spans="1:8">
-      <c r="B135" t="s">
-        <v>188</v>
-      </c>
-      <c r="C135" t="n">
-        <v>3.936</v>
-      </c>
-      <c r="D135" t="s">
-        <v>189</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="A135" t="s">
         <v>190</v>
-      </c>
-      <c r="F135" t="s">
-        <v>13</v>
-      </c>
-      <c r="G135" t="s">
-        <v>13</v>
-      </c>
-      <c r="H135" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -2953,607 +2961,730 @@
         <v>191</v>
       </c>
       <c r="C136" t="n">
-        <v>3.964</v>
+        <v>4</v>
       </c>
       <c r="D136" t="s">
+        <v>40</v>
+      </c>
+      <c r="E136" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" t="s">
+        <v>13</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
+      <c r="H136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" t="s">
         <v>192</v>
       </c>
-      <c r="E136" t="s">
+    </row>
+    <row r="139" spans="1:8">
+      <c r="B139" t="s">
         <v>193</v>
       </c>
-      <c r="F136" t="s">
-        <v>13</v>
-      </c>
-      <c r="G136" t="s">
-        <v>13</v>
-      </c>
-      <c r="H136" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="B137" t="s">
+      <c r="C139" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="D139" t="s">
+        <v>72</v>
+      </c>
+      <c r="E139" t="s">
+        <v>73</v>
+      </c>
+      <c r="F139" t="s">
+        <v>13</v>
+      </c>
+      <c r="G139" t="s">
+        <v>13</v>
+      </c>
+      <c r="H139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" t="s">
         <v>194</v>
       </c>
-      <c r="C137" t="n">
-        <v>3.857</v>
-      </c>
-      <c r="D137" t="s">
-        <v>69</v>
-      </c>
-      <c r="E137" t="s">
-        <v>70</v>
-      </c>
-      <c r="F137" t="s">
-        <v>13</v>
-      </c>
-      <c r="G137" t="s">
-        <v>13</v>
-      </c>
-      <c r="H137" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" t="s">
+    </row>
+    <row r="142" spans="1:8">
+      <c r="B142" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="B140" t="s">
-        <v>196</v>
-      </c>
-      <c r="C140" t="n">
-        <v>3.924</v>
-      </c>
-      <c r="D140" t="s">
-        <v>197</v>
-      </c>
-      <c r="E140" t="s">
-        <v>198</v>
-      </c>
-      <c r="F140" t="s">
-        <v>13</v>
-      </c>
-      <c r="G140" t="s">
-        <v>13</v>
-      </c>
-      <c r="H140" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" t="s">
-        <v>199</v>
+      <c r="C142" t="n">
+        <v>4</v>
+      </c>
+      <c r="D142" t="s">
+        <v>40</v>
+      </c>
+      <c r="E142" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142" t="s">
+        <v>13</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
+      <c r="H142" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="B143" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="C143" t="n">
-        <v>3.196</v>
+        <v>4</v>
       </c>
       <c r="D143" t="s">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="E143" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="F143" t="s">
-        <v>201</v>
+        <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="H143" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="144" spans="1:8">
+      <c r="B144" t="s">
+        <v>197</v>
+      </c>
+      <c r="C144" t="n">
+        <v>4</v>
+      </c>
+      <c r="D144" t="s">
+        <v>40</v>
+      </c>
+      <c r="E144" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" t="s">
+        <v>13</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
+      <c r="H144" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="145" spans="1:8">
-      <c r="A145" t="s">
-        <v>202</v>
+      <c r="B145" t="s">
+        <v>198</v>
+      </c>
+      <c r="C145" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="D145" t="s">
+        <v>84</v>
+      </c>
+      <c r="E145" t="s">
+        <v>85</v>
+      </c>
+      <c r="F145" t="s">
+        <v>13</v>
+      </c>
+      <c r="G145" t="s">
+        <v>13</v>
+      </c>
+      <c r="H145" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="B146" t="s">
+        <v>199</v>
+      </c>
+      <c r="C146" t="n">
+        <v>3.729</v>
+      </c>
+      <c r="D146" t="s">
+        <v>200</v>
+      </c>
+      <c r="E146" t="s">
+        <v>201</v>
+      </c>
+      <c r="F146" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146" t="s">
+        <v>13</v>
+      </c>
+      <c r="H146" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="B147" t="s">
+        <v>202</v>
+      </c>
+      <c r="C147" t="n">
+        <v>3.881</v>
+      </c>
+      <c r="D147" t="s">
         <v>203</v>
       </c>
-      <c r="C146" t="n">
-        <v>3.909</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="E147" t="s">
         <v>204</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F147" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
+      <c r="H147" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="B148" t="s">
         <v>205</v>
       </c>
-      <c r="F146" t="s">
-        <v>13</v>
-      </c>
-      <c r="G146" t="s">
-        <v>13</v>
-      </c>
-      <c r="H146" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" t="s">
-        <v>206</v>
+      <c r="C148" t="n">
+        <v>4</v>
+      </c>
+      <c r="D148" t="s">
+        <v>40</v>
+      </c>
+      <c r="E148" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" t="s">
+        <v>13</v>
+      </c>
+      <c r="G148" t="s">
+        <v>13</v>
+      </c>
+      <c r="H148" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="B149" t="s">
+        <v>206</v>
+      </c>
+      <c r="C149" t="n">
+        <v>3.762</v>
+      </c>
+      <c r="D149" t="s">
         <v>207</v>
       </c>
-      <c r="C149" t="n">
+      <c r="E149" t="s">
+        <v>208</v>
+      </c>
+      <c r="F149" t="s">
+        <v>13</v>
+      </c>
+      <c r="G149" t="s">
+        <v>13</v>
+      </c>
+      <c r="H149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="B150" t="s">
+        <v>209</v>
+      </c>
+      <c r="C150" t="n">
         <v>4</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D150" t="s">
         <v>40</v>
       </c>
-      <c r="E149" t="s">
-        <v>13</v>
-      </c>
-      <c r="F149" t="s">
-        <v>13</v>
-      </c>
-      <c r="G149" t="s">
-        <v>13</v>
-      </c>
-      <c r="H149" t="s">
+      <c r="E150" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" t="s">
+        <v>13</v>
+      </c>
+      <c r="H150" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" t="s">
-        <v>208</v>
+      <c r="B151" t="s">
+        <v>210</v>
+      </c>
+      <c r="C151" t="n">
+        <v>3.7265</v>
+      </c>
+      <c r="D151" t="s">
+        <v>211</v>
+      </c>
+      <c r="E151" t="s">
+        <v>212</v>
+      </c>
+      <c r="F151" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151" t="s">
+        <v>13</v>
+      </c>
+      <c r="H151" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="B152" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C152" t="n">
+        <v>3.936</v>
+      </c>
+      <c r="D152" t="s">
+        <v>214</v>
+      </c>
+      <c r="E152" t="s">
+        <v>215</v>
+      </c>
+      <c r="F152" t="s">
+        <v>13</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
+      <c r="H152" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="B153" t="s">
+        <v>216</v>
+      </c>
+      <c r="C153" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="D153" t="s">
+        <v>217</v>
+      </c>
+      <c r="E153" t="s">
+        <v>218</v>
+      </c>
+      <c r="F153" t="s">
+        <v>13</v>
+      </c>
+      <c r="G153" t="s">
+        <v>13</v>
+      </c>
+      <c r="H153" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="B154" t="s">
+        <v>219</v>
+      </c>
+      <c r="C154" t="n">
         <v>4</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D154" t="s">
         <v>40</v>
       </c>
-      <c r="E152" t="s">
-        <v>13</v>
-      </c>
-      <c r="F152" t="s">
-        <v>13</v>
-      </c>
-      <c r="G152" t="s">
-        <v>13</v>
-      </c>
-      <c r="H152" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="B155" t="s">
+      <c r="E154" t="s">
+        <v>13</v>
+      </c>
+      <c r="F154" t="s">
+        <v>13</v>
+      </c>
+      <c r="G154" t="s">
+        <v>13</v>
+      </c>
+      <c r="H154" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="B157" t="s">
+        <v>221</v>
+      </c>
+      <c r="C157" t="n">
+        <v>3.924</v>
+      </c>
+      <c r="D157" t="s">
+        <v>222</v>
+      </c>
+      <c r="E157" t="s">
+        <v>223</v>
+      </c>
+      <c r="F157" t="s">
+        <v>13</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
+      <c r="H157" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="B160" t="s">
+        <v>202</v>
+      </c>
+      <c r="C160" t="n">
+        <v>3.196</v>
+      </c>
+      <c r="D160" t="s">
+        <v>167</v>
+      </c>
+      <c r="E160" t="s">
+        <v>225</v>
+      </c>
+      <c r="F160" t="s">
+        <v>226</v>
+      </c>
+      <c r="G160" t="s">
+        <v>114</v>
+      </c>
+      <c r="H160" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="B163" t="s">
+        <v>228</v>
+      </c>
+      <c r="C163" t="n">
+        <v>3.909</v>
+      </c>
+      <c r="D163" t="s">
+        <v>229</v>
+      </c>
+      <c r="E163" t="s">
+        <v>230</v>
+      </c>
+      <c r="F163" t="s">
+        <v>13</v>
+      </c>
+      <c r="G163" t="s">
+        <v>13</v>
+      </c>
+      <c r="H163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="B166" t="s">
+        <v>232</v>
+      </c>
+      <c r="C166" t="n">
+        <v>4</v>
+      </c>
+      <c r="D166" t="s">
+        <v>40</v>
+      </c>
+      <c r="E166" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" t="s">
+        <v>13</v>
+      </c>
+      <c r="G166" t="s">
+        <v>13</v>
+      </c>
+      <c r="H166" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="B169" t="s">
+        <v>234</v>
+      </c>
+      <c r="C169" t="n">
+        <v>4</v>
+      </c>
+      <c r="D169" t="s">
+        <v>40</v>
+      </c>
+      <c r="E169" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" t="s">
+        <v>13</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
+      </c>
+      <c r="H169" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="B172" t="s">
+        <v>236</v>
+      </c>
+      <c r="C172" t="n">
+        <v>4</v>
+      </c>
+      <c r="D172" t="s">
+        <v>40</v>
+      </c>
+      <c r="E172" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" t="s">
+        <v>13</v>
+      </c>
+      <c r="G172" t="s">
+        <v>13</v>
+      </c>
+      <c r="H172" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="B173" t="s">
+        <v>237</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2.836</v>
+      </c>
+      <c r="D173" t="s">
+        <v>238</v>
+      </c>
+      <c r="E173" t="s">
+        <v>239</v>
+      </c>
+      <c r="F173" t="s">
+        <v>240</v>
+      </c>
+      <c r="G173" t="s">
+        <v>241</v>
+      </c>
+      <c r="H173" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="B176" t="s">
+        <v>244</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2.9125</v>
+      </c>
+      <c r="D176" t="s">
+        <v>245</v>
+      </c>
+      <c r="E176" t="s">
+        <v>246</v>
+      </c>
+      <c r="F176" t="s">
+        <v>247</v>
+      </c>
+      <c r="G176" t="s">
+        <v>248</v>
+      </c>
+      <c r="H176" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="B179" t="s">
+        <v>250</v>
+      </c>
+      <c r="C179" t="n">
+        <v>3.4352</v>
+      </c>
+      <c r="D179" t="s">
+        <v>58</v>
+      </c>
+      <c r="E179" t="s">
+        <v>251</v>
+      </c>
+      <c r="F179" t="s">
+        <v>252</v>
+      </c>
+      <c r="G179" t="s">
+        <v>13</v>
+      </c>
+      <c r="H179" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="B182" t="s">
+        <v>255</v>
+      </c>
+      <c r="C182" t="n">
+        <v>3.596</v>
+      </c>
+      <c r="D182" t="s">
         <v>211</v>
       </c>
-      <c r="C155" t="n">
-        <v>2.9125</v>
-      </c>
-      <c r="D155" t="s">
-        <v>212</v>
-      </c>
-      <c r="E155" t="s">
-        <v>213</v>
-      </c>
-      <c r="F155" t="s">
-        <v>214</v>
-      </c>
-      <c r="G155" t="s">
-        <v>215</v>
-      </c>
-      <c r="H155" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="B158" t="s">
-        <v>217</v>
-      </c>
-      <c r="C158" t="n">
-        <v>3.4352</v>
-      </c>
-      <c r="D158" t="s">
-        <v>218</v>
-      </c>
-      <c r="E158" t="s">
-        <v>219</v>
-      </c>
-      <c r="F158" t="s">
-        <v>220</v>
-      </c>
-      <c r="G158" t="s">
-        <v>13</v>
-      </c>
-      <c r="H158" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="B161" t="s">
-        <v>223</v>
-      </c>
-      <c r="C161" t="n">
-        <v>3.596</v>
-      </c>
-      <c r="D161" t="s">
-        <v>186</v>
-      </c>
-      <c r="E161" t="s">
-        <v>224</v>
-      </c>
-      <c r="F161" t="s">
-        <v>225</v>
-      </c>
-      <c r="G161" t="s">
-        <v>226</v>
-      </c>
-      <c r="H161" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="B164" t="s">
-        <v>228</v>
-      </c>
-      <c r="C164" t="n">
+      <c r="E182" t="s">
+        <v>256</v>
+      </c>
+      <c r="F182" t="s">
+        <v>257</v>
+      </c>
+      <c r="G182" t="s">
+        <v>258</v>
+      </c>
+      <c r="H182" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="B185" t="s">
+        <v>260</v>
+      </c>
+      <c r="C185" t="n">
         <v>3.1</v>
       </c>
-      <c r="D164" t="s">
-        <v>218</v>
-      </c>
-      <c r="E164" t="s">
-        <v>229</v>
-      </c>
-      <c r="F164" t="s">
-        <v>74</v>
-      </c>
-      <c r="G164" t="s">
-        <v>13</v>
-      </c>
-      <c r="H164" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="B167" t="s">
-        <v>231</v>
-      </c>
-      <c r="C167" t="n">
+      <c r="D185" t="s">
+        <v>58</v>
+      </c>
+      <c r="E185" t="s">
+        <v>261</v>
+      </c>
+      <c r="F185" t="s">
+        <v>89</v>
+      </c>
+      <c r="G185" t="s">
+        <v>13</v>
+      </c>
+      <c r="H185" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="B188" t="s">
+        <v>263</v>
+      </c>
+      <c r="C188" t="n">
         <v>3.833</v>
       </c>
-      <c r="D167" t="s">
-        <v>57</v>
-      </c>
-      <c r="E167" t="s">
-        <v>58</v>
-      </c>
-      <c r="F167" t="s">
-        <v>13</v>
-      </c>
-      <c r="G167" t="s">
-        <v>13</v>
-      </c>
-      <c r="H167" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="B168" t="s">
-        <v>232</v>
-      </c>
-      <c r="C168" t="n">
+      <c r="D188" t="s">
+        <v>72</v>
+      </c>
+      <c r="E188" t="s">
+        <v>73</v>
+      </c>
+      <c r="F188" t="s">
+        <v>13</v>
+      </c>
+      <c r="G188" t="s">
+        <v>13</v>
+      </c>
+      <c r="H188" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="B189" t="s">
+        <v>264</v>
+      </c>
+      <c r="C189" t="n">
         <v>3.525</v>
       </c>
-      <c r="D168" t="s">
-        <v>233</v>
-      </c>
-      <c r="E168" t="s">
-        <v>234</v>
-      </c>
-      <c r="F168" t="s">
-        <v>235</v>
-      </c>
-      <c r="G168" t="s">
-        <v>13</v>
-      </c>
-      <c r="H168" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="A170" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="B171" t="s">
-        <v>217</v>
-      </c>
-      <c r="C171" t="n">
-        <v>4</v>
-      </c>
-      <c r="D171" t="s">
-        <v>40</v>
-      </c>
-      <c r="E171" t="s">
-        <v>13</v>
-      </c>
-      <c r="F171" t="s">
-        <v>13</v>
-      </c>
-      <c r="G171" t="s">
-        <v>13</v>
-      </c>
-      <c r="H171" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="B174" t="s">
-        <v>238</v>
-      </c>
-      <c r="C174" t="n">
-        <v>3</v>
-      </c>
-      <c r="D174" t="s">
-        <v>239</v>
-      </c>
-      <c r="E174" t="s">
-        <v>24</v>
-      </c>
-      <c r="F174" t="s">
-        <v>239</v>
-      </c>
-      <c r="G174" t="s">
-        <v>13</v>
-      </c>
-      <c r="H174" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="A176" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="B177" t="s">
-        <v>241</v>
-      </c>
-      <c r="C177" t="n">
-        <v>3.288</v>
-      </c>
-      <c r="D177" t="s">
-        <v>242</v>
-      </c>
-      <c r="E177" t="s">
-        <v>243</v>
-      </c>
-      <c r="F177" t="s">
-        <v>244</v>
-      </c>
-      <c r="G177" t="s">
-        <v>245</v>
-      </c>
-      <c r="H177" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="B178" t="s">
-        <v>231</v>
-      </c>
-      <c r="C178" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D178" t="s">
-        <v>88</v>
-      </c>
-      <c r="E178" t="s">
-        <v>89</v>
-      </c>
-      <c r="F178" t="s">
-        <v>13</v>
-      </c>
-      <c r="G178" t="s">
-        <v>13</v>
-      </c>
-      <c r="H178" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="B181" t="s">
-        <v>173</v>
-      </c>
-      <c r="C181" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="D181" t="s">
-        <v>248</v>
-      </c>
-      <c r="E181" t="s">
-        <v>249</v>
-      </c>
-      <c r="F181" t="s">
-        <v>250</v>
-      </c>
-      <c r="G181" t="s">
-        <v>99</v>
-      </c>
-      <c r="H181" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="B184" t="s">
-        <v>252</v>
-      </c>
-      <c r="C184" t="n">
-        <v>3.282</v>
-      </c>
-      <c r="D184" t="s">
-        <v>253</v>
-      </c>
-      <c r="E184" t="s">
-        <v>254</v>
-      </c>
-      <c r="F184" t="s">
-        <v>255</v>
-      </c>
-      <c r="G184" t="s">
-        <v>113</v>
-      </c>
-      <c r="H184" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="A186" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="B187" t="s">
-        <v>257</v>
-      </c>
-      <c r="C187" t="n">
-        <v>3.023</v>
-      </c>
-      <c r="D187" t="s">
-        <v>258</v>
-      </c>
-      <c r="E187" t="s">
-        <v>259</v>
-      </c>
-      <c r="F187" t="s">
-        <v>260</v>
-      </c>
-      <c r="G187" t="s">
-        <v>113</v>
-      </c>
-      <c r="H187" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="A189" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
-      <c r="B190" t="s">
-        <v>171</v>
-      </c>
-      <c r="C190" t="n">
-        <v>3.9583</v>
-      </c>
-      <c r="D190" t="s">
-        <v>262</v>
-      </c>
-      <c r="E190" t="s">
-        <v>263</v>
-      </c>
-      <c r="F190" t="s">
-        <v>13</v>
-      </c>
-      <c r="G190" t="s">
-        <v>13</v>
-      </c>
-      <c r="H190" t="s">
+      <c r="D189" t="s">
+        <v>265</v>
+      </c>
+      <c r="E189" t="s">
+        <v>266</v>
+      </c>
+      <c r="F189" t="s">
+        <v>267</v>
+      </c>
+      <c r="G189" t="s">
+        <v>13</v>
+      </c>
+      <c r="H189" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:8">
-      <c r="B191" t="s">
-        <v>264</v>
-      </c>
-      <c r="C191" t="n">
-        <v>4</v>
-      </c>
-      <c r="D191" t="s">
-        <v>40</v>
-      </c>
-      <c r="E191" t="s">
-        <v>13</v>
-      </c>
-      <c r="F191" t="s">
-        <v>13</v>
-      </c>
-      <c r="G191" t="s">
-        <v>13</v>
-      </c>
-      <c r="H191" t="s">
-        <v>13</v>
+      <c r="A191" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="B192" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C192" t="n">
-        <v>3.844</v>
+        <v>4</v>
       </c>
       <c r="D192" t="s">
-        <v>266</v>
+        <v>40</v>
       </c>
       <c r="E192" t="s">
-        <v>267</v>
+        <v>13</v>
       </c>
       <c r="F192" t="s">
-        <v>268</v>
+        <v>13</v>
       </c>
       <c r="G192" t="s">
         <v>13</v>
@@ -3562,74 +3693,74 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
-      <c r="B193" t="s">
-        <v>238</v>
-      </c>
-      <c r="C193" t="n">
-        <v>4</v>
-      </c>
-      <c r="D193" t="s">
-        <v>40</v>
-      </c>
-      <c r="E193" t="s">
-        <v>13</v>
-      </c>
-      <c r="F193" t="s">
-        <v>13</v>
-      </c>
-      <c r="G193" t="s">
-        <v>13</v>
-      </c>
-      <c r="H193" t="s">
-        <v>13</v>
+    <row r="194" spans="1:8">
+      <c r="A194" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="B196" t="s">
-        <v>141</v>
-      </c>
-      <c r="C196" t="n">
-        <v>2.732</v>
-      </c>
-      <c r="D196" t="s">
+      <c r="B195" t="s">
         <v>270</v>
       </c>
-      <c r="E196" t="s">
+      <c r="C195" t="n">
+        <v>3</v>
+      </c>
+      <c r="D195" t="s">
         <v>271</v>
       </c>
-      <c r="F196" t="s">
+      <c r="E195" t="s">
+        <v>24</v>
+      </c>
+      <c r="F195" t="s">
+        <v>271</v>
+      </c>
+      <c r="G195" t="s">
+        <v>13</v>
+      </c>
+      <c r="H195" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" t="s">
         <v>272</v>
       </c>
-      <c r="G196" t="s">
+    </row>
+    <row r="198" spans="1:8">
+      <c r="B198" t="s">
         <v>273</v>
       </c>
-      <c r="H196" t="s">
+      <c r="C198" t="n">
+        <v>3.288</v>
+      </c>
+      <c r="D198" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="198" spans="1:8">
-      <c r="A198" t="s">
+      <c r="E198" t="s">
         <v>275</v>
+      </c>
+      <c r="F198" t="s">
+        <v>276</v>
+      </c>
+      <c r="G198" t="s">
+        <v>277</v>
+      </c>
+      <c r="H198" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="B199" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C199" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D199" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="E199" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="F199" t="s">
         <v>13</v>
@@ -3643,174 +3774,174 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="B202" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="C202" t="n">
-        <v>3.333</v>
+        <v>3.045</v>
       </c>
       <c r="D202" t="s">
-        <v>67</v>
+        <v>280</v>
       </c>
       <c r="E202" t="s">
-        <v>66</v>
+        <v>281</v>
       </c>
       <c r="F202" t="s">
-        <v>13</v>
+        <v>282</v>
       </c>
       <c r="G202" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="H202" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
-      <c r="B203" t="s">
-        <v>278</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2.6425</v>
-      </c>
-      <c r="D203" t="s">
-        <v>279</v>
-      </c>
-      <c r="E203" t="s">
-        <v>280</v>
-      </c>
-      <c r="F203" t="s">
-        <v>281</v>
-      </c>
-      <c r="G203" t="s">
-        <v>282</v>
-      </c>
-      <c r="H203" t="s">
+    <row r="204" spans="1:8">
+      <c r="A204" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
-      <c r="B204" t="s">
+    <row r="205" spans="1:8">
+      <c r="B205" t="s">
+        <v>236</v>
+      </c>
+      <c r="C205" t="n">
+        <v>3.282</v>
+      </c>
+      <c r="D205" t="s">
         <v>284</v>
       </c>
-      <c r="C204" t="n">
-        <v>2.175</v>
-      </c>
-      <c r="D204" t="s">
+      <c r="E205" t="s">
         <v>285</v>
       </c>
-      <c r="E204" t="s">
+      <c r="F205" t="s">
         <v>286</v>
       </c>
-      <c r="F204" t="s">
+      <c r="G205" t="s">
+        <v>128</v>
+      </c>
+      <c r="H205" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" t="s">
         <v>287</v>
       </c>
-      <c r="G204" t="s">
-        <v>74</v>
-      </c>
-      <c r="H204" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
-      <c r="A206" t="s">
+    </row>
+    <row r="208" spans="1:8">
+      <c r="B208" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="207" spans="1:8">
-      <c r="B207" t="s">
+      <c r="C208" t="n">
+        <v>3.023</v>
+      </c>
+      <c r="D208" t="s">
         <v>289</v>
       </c>
-      <c r="C207" t="n">
-        <v>2.361</v>
-      </c>
-      <c r="D207" t="s">
-        <v>89</v>
-      </c>
-      <c r="E207" t="s">
-        <v>20</v>
-      </c>
-      <c r="F207" t="s">
+      <c r="E208" t="s">
         <v>290</v>
       </c>
-      <c r="G207" t="s">
+      <c r="F208" t="s">
         <v>291</v>
       </c>
-      <c r="H207" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="A209" t="s">
+      <c r="G208" t="s">
+        <v>128</v>
+      </c>
+      <c r="H208" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
-      <c r="B210" t="s">
-        <v>278</v>
-      </c>
-      <c r="C210" t="n">
-        <v>3.714</v>
-      </c>
-      <c r="D210" t="s">
+    <row r="211" spans="1:8">
+      <c r="B211" t="s">
+        <v>191</v>
+      </c>
+      <c r="C211" t="n">
+        <v>3.9583</v>
+      </c>
+      <c r="D211" t="s">
         <v>293</v>
       </c>
-      <c r="E210" t="s">
-        <v>281</v>
-      </c>
-      <c r="F210" t="s">
-        <v>13</v>
-      </c>
-      <c r="G210" t="s">
-        <v>13</v>
-      </c>
-      <c r="H210" t="s">
+      <c r="E211" t="s">
+        <v>294</v>
+      </c>
+      <c r="F211" t="s">
+        <v>13</v>
+      </c>
+      <c r="G211" t="s">
+        <v>13</v>
+      </c>
+      <c r="H211" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" t="s">
-        <v>294</v>
+      <c r="B212" t="s">
+        <v>295</v>
+      </c>
+      <c r="C212" t="n">
+        <v>4</v>
+      </c>
+      <c r="D212" t="s">
+        <v>40</v>
+      </c>
+      <c r="E212" t="s">
+        <v>13</v>
+      </c>
+      <c r="F212" t="s">
+        <v>13</v>
+      </c>
+      <c r="G212" t="s">
+        <v>13</v>
+      </c>
+      <c r="H212" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="B213" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C213" t="n">
-        <v>2.488</v>
+        <v>3.844</v>
       </c>
       <c r="D213" t="s">
-        <v>36</v>
+        <v>297</v>
       </c>
       <c r="E213" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F213" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G213" t="s">
-        <v>298</v>
+        <v>13</v>
       </c>
       <c r="H213" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="B214" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C214" t="n">
-        <v>3.692</v>
+        <v>4</v>
       </c>
       <c r="D214" t="s">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="E214" t="s">
-        <v>239</v>
+        <v>13</v>
       </c>
       <c r="F214" t="s">
         <v>13</v>
@@ -3824,182 +3955,182 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="B217" t="s">
-        <v>276</v>
+        <v>161</v>
       </c>
       <c r="C217" t="n">
-        <v>3.6</v>
+        <v>2.732</v>
       </c>
       <c r="D217" t="s">
-        <v>73</v>
+        <v>301</v>
       </c>
       <c r="E217" t="s">
-        <v>13</v>
+        <v>302</v>
       </c>
       <c r="F217" t="s">
-        <v>13</v>
+        <v>303</v>
       </c>
       <c r="G217" t="s">
-        <v>13</v>
+        <v>304</v>
       </c>
       <c r="H217" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
-      <c r="B218" t="s">
-        <v>141</v>
-      </c>
-      <c r="C218" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="B220" t="s">
+        <v>307</v>
+      </c>
+      <c r="C220" t="n">
         <v>4</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D220" t="s">
         <v>40</v>
       </c>
-      <c r="E218" t="s">
-        <v>13</v>
-      </c>
-      <c r="F218" t="s">
-        <v>13</v>
-      </c>
-      <c r="G218" t="s">
-        <v>13</v>
-      </c>
-      <c r="H218" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
-      <c r="A220" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
-      <c r="B221" t="s">
-        <v>303</v>
-      </c>
-      <c r="C221" t="n">
-        <v>3.958</v>
-      </c>
-      <c r="D221" t="s">
-        <v>304</v>
-      </c>
-      <c r="E221" t="s">
-        <v>305</v>
-      </c>
-      <c r="F221" t="s">
-        <v>13</v>
-      </c>
-      <c r="G221" t="s">
-        <v>13</v>
-      </c>
-      <c r="H221" t="s">
+      <c r="E220" t="s">
+        <v>13</v>
+      </c>
+      <c r="F220" t="s">
+        <v>13</v>
+      </c>
+      <c r="G220" t="s">
+        <v>13</v>
+      </c>
+      <c r="H220" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="222" spans="1:8">
-      <c r="B222" t="s">
-        <v>306</v>
-      </c>
-      <c r="C222" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="D222" t="s">
-        <v>67</v>
-      </c>
-      <c r="E222" t="s">
+      <c r="A222" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="B223" t="s">
         <v>307</v>
       </c>
-      <c r="F222" t="s">
-        <v>133</v>
-      </c>
-      <c r="G222" t="s">
-        <v>13</v>
-      </c>
-      <c r="H222" t="s">
+      <c r="C223" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D223" t="s">
+        <v>82</v>
+      </c>
+      <c r="E223" t="s">
+        <v>81</v>
+      </c>
+      <c r="F223" t="s">
+        <v>13</v>
+      </c>
+      <c r="G223" t="s">
+        <v>13</v>
+      </c>
+      <c r="H223" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="224" spans="1:8">
-      <c r="A224" t="s">
-        <v>308</v>
+      <c r="B224" t="s">
+        <v>309</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2.6425</v>
+      </c>
+      <c r="D224" t="s">
+        <v>310</v>
+      </c>
+      <c r="E224" t="s">
+        <v>311</v>
+      </c>
+      <c r="F224" t="s">
+        <v>312</v>
+      </c>
+      <c r="G224" t="s">
+        <v>313</v>
+      </c>
+      <c r="H224" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="B225" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="C225" t="n">
-        <v>4</v>
+        <v>2.175</v>
       </c>
       <c r="D225" t="s">
-        <v>40</v>
+        <v>316</v>
       </c>
       <c r="E225" t="s">
-        <v>13</v>
+        <v>317</v>
       </c>
       <c r="F225" t="s">
-        <v>13</v>
+        <v>318</v>
       </c>
       <c r="G225" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="H225" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="B228" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C228" t="n">
-        <v>2.655</v>
+        <v>2.361</v>
       </c>
       <c r="D228" t="s">
-        <v>311</v>
+        <v>104</v>
       </c>
       <c r="E228" t="s">
-        <v>312</v>
+        <v>20</v>
       </c>
       <c r="F228" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="G228" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="H228" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="B231" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="C231" t="n">
-        <v>2.8</v>
+        <v>3.714</v>
       </c>
       <c r="D231" t="s">
-        <v>20</v>
+        <v>324</v>
       </c>
       <c r="E231" t="s">
-        <v>89</v>
+        <v>312</v>
       </c>
       <c r="F231" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="G231" t="s">
         <v>13</v>
@@ -4010,108 +4141,149 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="234" spans="1:8">
       <c r="B234" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="C234" t="n">
+        <v>2.488</v>
+      </c>
+      <c r="D234" t="s">
+        <v>36</v>
+      </c>
+      <c r="E234" t="s">
+        <v>327</v>
+      </c>
+      <c r="F234" t="s">
+        <v>328</v>
+      </c>
+      <c r="G234" t="s">
+        <v>329</v>
+      </c>
+      <c r="H234" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="B235" t="s">
+        <v>307</v>
+      </c>
+      <c r="C235" t="n">
+        <v>3.692</v>
+      </c>
+      <c r="D235" t="s">
+        <v>331</v>
+      </c>
+      <c r="E235" t="s">
+        <v>271</v>
+      </c>
+      <c r="F235" t="s">
+        <v>13</v>
+      </c>
+      <c r="G235" t="s">
+        <v>13</v>
+      </c>
+      <c r="H235" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="B238" t="s">
+        <v>307</v>
+      </c>
+      <c r="C238" t="n">
         <v>3.6</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D238" t="s">
         <v>88</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E238" t="s">
+        <v>13</v>
+      </c>
+      <c r="F238" t="s">
+        <v>13</v>
+      </c>
+      <c r="G238" t="s">
+        <v>13</v>
+      </c>
+      <c r="H238" t="s">
         <v>89</v>
       </c>
-      <c r="F234" t="s">
-        <v>13</v>
-      </c>
-      <c r="G234" t="s">
-        <v>13</v>
-      </c>
-      <c r="H234" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
-      <c r="A236" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
-      <c r="B237" t="s">
-        <v>319</v>
-      </c>
-      <c r="C237" t="n">
+    </row>
+    <row r="239" spans="1:8">
+      <c r="B239" t="s">
+        <v>161</v>
+      </c>
+      <c r="C239" t="n">
         <v>4</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D239" t="s">
         <v>40</v>
       </c>
-      <c r="E237" t="s">
-        <v>13</v>
-      </c>
-      <c r="F237" t="s">
-        <v>13</v>
-      </c>
-      <c r="G237" t="s">
-        <v>13</v>
-      </c>
-      <c r="H237" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
-      <c r="A239" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
-      <c r="B240" t="s">
-        <v>321</v>
-      </c>
-      <c r="C240" t="n">
-        <v>3.875</v>
-      </c>
-      <c r="D240" t="s">
-        <v>266</v>
-      </c>
-      <c r="E240" t="s">
-        <v>322</v>
-      </c>
-      <c r="F240" t="s">
-        <v>13</v>
-      </c>
-      <c r="G240" t="s">
-        <v>13</v>
-      </c>
-      <c r="H240" t="s">
-        <v>13</v>
+      <c r="E239" t="s">
+        <v>13</v>
+      </c>
+      <c r="F239" t="s">
+        <v>13</v>
+      </c>
+      <c r="G239" t="s">
+        <v>13</v>
+      </c>
+      <c r="H239" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="242" spans="1:8">
-      <c r="A242" t="s">
-        <v>323</v>
+      <c r="B242" t="s">
+        <v>334</v>
+      </c>
+      <c r="C242" t="n">
+        <v>3.958</v>
+      </c>
+      <c r="D242" t="s">
+        <v>335</v>
+      </c>
+      <c r="E242" t="s">
+        <v>59</v>
+      </c>
+      <c r="F242" t="s">
+        <v>13</v>
+      </c>
+      <c r="G242" t="s">
+        <v>13</v>
+      </c>
+      <c r="H242" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="243" spans="1:8">
       <c r="B243" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="C243" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="D243" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="E243" t="s">
-        <v>13</v>
+        <v>337</v>
       </c>
       <c r="F243" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="G243" t="s">
         <v>13</v>
@@ -4122,55 +4294,55 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="246" spans="1:8">
       <c r="B246" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C246" t="n">
-        <v>2.933</v>
+        <v>4</v>
       </c>
       <c r="D246" t="s">
-        <v>327</v>
+        <v>40</v>
       </c>
       <c r="E246" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="F246" t="s">
-        <v>328</v>
+        <v>13</v>
       </c>
       <c r="G246" t="s">
-        <v>329</v>
+        <v>13</v>
       </c>
       <c r="H246" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="249" spans="1:8">
       <c r="B249" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C249" t="n">
-        <v>3.954</v>
+        <v>2.655</v>
       </c>
       <c r="D249" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="E249" t="s">
-        <v>152</v>
+        <v>342</v>
       </c>
       <c r="F249" t="s">
-        <v>13</v>
+        <v>343</v>
       </c>
       <c r="G249" t="s">
-        <v>13</v>
+        <v>344</v>
       </c>
       <c r="H249" t="s">
         <v>13</v>
@@ -4178,27 +4350,27 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="B252" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="C252" t="n">
-        <v>2.992</v>
+        <v>2.8</v>
       </c>
       <c r="D252" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="E252" t="s">
-        <v>335</v>
+        <v>104</v>
       </c>
       <c r="F252" t="s">
-        <v>258</v>
+        <v>104</v>
       </c>
       <c r="G252" t="s">
-        <v>336</v>
+        <v>13</v>
       </c>
       <c r="H252" t="s">
         <v>13</v>
@@ -4206,52 +4378,248 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="255" spans="1:8">
       <c r="B255" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="C255" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D255" t="s">
+        <v>103</v>
+      </c>
+      <c r="E255" t="s">
+        <v>104</v>
+      </c>
+      <c r="F255" t="s">
+        <v>13</v>
+      </c>
+      <c r="G255" t="s">
+        <v>13</v>
+      </c>
+      <c r="H255" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="B258" t="s">
+        <v>349</v>
+      </c>
+      <c r="C258" t="n">
         <v>4</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D258" t="s">
         <v>40</v>
       </c>
-      <c r="E255" t="s">
-        <v>13</v>
-      </c>
-      <c r="F255" t="s">
-        <v>13</v>
-      </c>
-      <c r="G255" t="s">
-        <v>13</v>
-      </c>
-      <c r="H255" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
-      <c r="B256" t="s">
-        <v>338</v>
-      </c>
-      <c r="C256" t="n">
+      <c r="E258" t="s">
+        <v>13</v>
+      </c>
+      <c r="F258" t="s">
+        <v>13</v>
+      </c>
+      <c r="G258" t="s">
+        <v>13</v>
+      </c>
+      <c r="H258" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="B261" t="s">
+        <v>351</v>
+      </c>
+      <c r="C261" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="D261" t="s">
+        <v>297</v>
+      </c>
+      <c r="E261" t="s">
+        <v>352</v>
+      </c>
+      <c r="F261" t="s">
+        <v>13</v>
+      </c>
+      <c r="G261" t="s">
+        <v>13</v>
+      </c>
+      <c r="H261" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="B264" t="s">
+        <v>354</v>
+      </c>
+      <c r="C264" t="n">
         <v>4</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D264" t="s">
         <v>40</v>
       </c>
-      <c r="E256" t="s">
-        <v>13</v>
-      </c>
-      <c r="F256" t="s">
-        <v>13</v>
-      </c>
-      <c r="G256" t="s">
-        <v>13</v>
-      </c>
-      <c r="H256" t="s">
+      <c r="E264" t="s">
+        <v>13</v>
+      </c>
+      <c r="F264" t="s">
+        <v>13</v>
+      </c>
+      <c r="G264" t="s">
+        <v>13</v>
+      </c>
+      <c r="H264" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="B267" t="s">
+        <v>356</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2.933</v>
+      </c>
+      <c r="D267" t="s">
+        <v>357</v>
+      </c>
+      <c r="E267" t="s">
+        <v>118</v>
+      </c>
+      <c r="F267" t="s">
+        <v>358</v>
+      </c>
+      <c r="G267" t="s">
+        <v>359</v>
+      </c>
+      <c r="H267" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="B270" t="s">
+        <v>361</v>
+      </c>
+      <c r="C270" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="D270" t="s">
+        <v>362</v>
+      </c>
+      <c r="E270" t="s">
+        <v>172</v>
+      </c>
+      <c r="F270" t="s">
+        <v>13</v>
+      </c>
+      <c r="G270" t="s">
+        <v>13</v>
+      </c>
+      <c r="H270" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="B273" t="s">
+        <v>364</v>
+      </c>
+      <c r="C273" t="n">
+        <v>2.992</v>
+      </c>
+      <c r="D273" t="s">
+        <v>127</v>
+      </c>
+      <c r="E273" t="s">
+        <v>365</v>
+      </c>
+      <c r="F273" t="s">
+        <v>289</v>
+      </c>
+      <c r="G273" t="s">
+        <v>366</v>
+      </c>
+      <c r="H273" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="B276" t="s">
+        <v>364</v>
+      </c>
+      <c r="C276" t="n">
+        <v>4</v>
+      </c>
+      <c r="D276" t="s">
+        <v>40</v>
+      </c>
+      <c r="E276" t="s">
+        <v>13</v>
+      </c>
+      <c r="F276" t="s">
+        <v>13</v>
+      </c>
+      <c r="G276" t="s">
+        <v>13</v>
+      </c>
+      <c r="H276" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="B277" t="s">
+        <v>368</v>
+      </c>
+      <c r="C277" t="n">
+        <v>4</v>
+      </c>
+      <c r="D277" t="s">
+        <v>40</v>
+      </c>
+      <c r="E277" t="s">
+        <v>13</v>
+      </c>
+      <c r="F277" t="s">
+        <v>13</v>
+      </c>
+      <c r="G277" t="s">
+        <v>13</v>
+      </c>
+      <c r="H277" t="s">
         <v>13</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Spring2013/Output/Spring2013 VM.xlsx
+++ b/GradeDistributionsDB/Spring2013/Output/Spring2013 VM.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="381">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>BIMS-101</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
     <t>2.56%</t>
   </si>
   <si>
+    <t>2.50%</t>
+  </si>
+  <si>
     <t>COTHRAN E</t>
   </si>
   <si>
@@ -139,6 +145,9 @@
     <t>100.00%</t>
   </si>
   <si>
+    <t>3.57%</t>
+  </si>
+  <si>
     <t>BIMS-485</t>
   </si>
   <si>
@@ -160,6 +169,9 @@
     <t>1.54%</t>
   </si>
   <si>
+    <t>1.52%</t>
+  </si>
+  <si>
     <t>VIBS-305</t>
   </si>
   <si>
@@ -181,6 +193,9 @@
     <t>0.85%</t>
   </si>
   <si>
+    <t>0.84%</t>
+  </si>
+  <si>
     <t>VIBS-413</t>
   </si>
   <si>
@@ -205,9 +220,6 @@
     <t>96.43%</t>
   </si>
   <si>
-    <t>3.57%</t>
-  </si>
-  <si>
     <t>VIBS-443</t>
   </si>
   <si>
@@ -226,6 +238,9 @@
     <t>4.88%</t>
   </si>
   <si>
+    <t>6.82%</t>
+  </si>
+  <si>
     <t>VIBS-450</t>
   </si>
   <si>
@@ -247,6 +262,9 @@
     <t>AROSH S</t>
   </si>
   <si>
+    <t>6.25%</t>
+  </si>
+  <si>
     <t>ABBOTT L</t>
   </si>
   <si>
@@ -745,6 +763,9 @@
     <t>7.14%</t>
   </si>
   <si>
+    <t>3.45%</t>
+  </si>
+  <si>
     <t>VTPB-334</t>
   </si>
   <si>
@@ -778,6 +799,9 @@
     <t>1.16%</t>
   </si>
   <si>
+    <t>1.15%</t>
+  </si>
+  <si>
     <t>VTPB-409</t>
   </si>
   <si>
@@ -793,6 +817,9 @@
     <t>1.92%</t>
   </si>
   <si>
+    <t>1.89%</t>
+  </si>
+  <si>
     <t>VTPB-410</t>
   </si>
   <si>
@@ -820,6 +847,9 @@
     <t>8.47%</t>
   </si>
   <si>
+    <t>1.67%</t>
+  </si>
+  <si>
     <t>VTPB-485</t>
   </si>
   <si>
@@ -853,6 +883,9 @@
     <t>0.80%</t>
   </si>
   <si>
+    <t>3.85%</t>
+  </si>
+  <si>
     <t>VTPB-911</t>
   </si>
   <si>
@@ -898,9 +931,6 @@
     <t>96.15%</t>
   </si>
   <si>
-    <t>3.85%</t>
-  </si>
-  <si>
     <t>SWINFORD A</t>
   </si>
   <si>
@@ -1009,6 +1039,9 @@
     <t>1.22%</t>
   </si>
   <si>
+    <t>1.20%</t>
+  </si>
+  <si>
     <t>69.23%</t>
   </si>
   <si>
@@ -1049,6 +1082,9 @@
   </si>
   <si>
     <t>10.34%</t>
+  </si>
+  <si>
+    <t>6.45%</t>
   </si>
   <si>
     <t>VTPP-625</t>
@@ -1158,12 +1194,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1457,15 +1492,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H277"/>
+  <dimension ref="A1:I277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1490,3137 +1525,3497 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.7925</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>3.867</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
         <v>3.733</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
         <v>3.282</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
         <v>2.897</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" t="n">
         <v>3.786</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" t="n">
         <v>3.146</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="n">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C22" t="n">
         <v>3.231</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C25" t="n">
         <v>3.127</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C28" t="n">
         <v>3.25</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="B31" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C31" t="n">
         <v>3.9645</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C34" t="n">
         <v>3.1455</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G34" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C37" t="n">
         <v>3.833</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C40" t="n">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C43" t="n">
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="B44" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C44" t="n">
         <v>3.889</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E44" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C45" t="n">
         <v>3.667</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E45" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C46" t="n">
         <v>3.857</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="B49" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C49" t="n">
         <v>3.9</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="B52" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C52" t="n">
         <v>3.85</v>
       </c>
       <c r="D52" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E52" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="B55" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C55" t="n">
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C58" t="n">
         <v>3.79</v>
       </c>
       <c r="D58" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E58" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F58" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C61" t="n">
         <v>3.667</v>
       </c>
       <c r="D61" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E61" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="B64" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C64" t="n">
         <v>3.6</v>
       </c>
       <c r="D64" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E64" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="B67" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C67" t="n">
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="B70" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C70" t="n">
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C71" t="n">
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C72" t="n">
         <v>3.857</v>
       </c>
       <c r="D72" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E72" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="B75" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C75" t="n">
         <v>2.866</v>
       </c>
       <c r="D75" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E75" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F75" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C78" t="n">
         <v>3.276</v>
       </c>
       <c r="D78" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E78" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F78" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="B81" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C81" t="n">
         <v>3.664</v>
       </c>
       <c r="D81" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E81" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F81" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="B84" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C84" t="n">
         <v>3.656</v>
       </c>
       <c r="D84" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E84" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F84" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="B87" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C87" t="n">
         <v>3.533</v>
       </c>
       <c r="D87" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E87" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="B88" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C88" t="n">
         <v>3.833</v>
       </c>
       <c r="D88" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E88" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="B91" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C91" t="n">
         <v>3.8</v>
       </c>
       <c r="D91" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="B94" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C94" t="n">
         <v>3.629</v>
       </c>
       <c r="D94" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E94" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="B97" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C97" t="n">
         <v>3.103</v>
       </c>
       <c r="D97" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E97" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F97" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="B100" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C100" t="n">
         <v>3.556</v>
       </c>
       <c r="D100" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E100" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="B103" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C103" t="n">
         <v>4</v>
       </c>
       <c r="D103" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="B104" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C104" t="n">
         <v>4</v>
       </c>
       <c r="D104" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="B105" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C105" t="n">
         <v>4</v>
       </c>
       <c r="D105" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="B106" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C106" t="n">
         <v>3.923</v>
       </c>
       <c r="D106" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E106" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="B107" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C107" t="n">
         <v>4</v>
       </c>
       <c r="D107" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="B108" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C108" t="n">
         <v>4</v>
       </c>
       <c r="D108" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="B109" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C109" t="n">
         <v>3.81</v>
       </c>
       <c r="D109" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E109" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F109" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="B112" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C112" t="n">
         <v>4</v>
       </c>
       <c r="D112" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="B115" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C115" t="n">
         <v>3.933</v>
       </c>
       <c r="D115" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E115" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="B118" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C118" t="n">
         <v>2.624</v>
       </c>
       <c r="D118" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E118" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F118" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="G118" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H118" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="B121" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C121" t="n">
         <v>3.405</v>
       </c>
       <c r="D121" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E121" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F121" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="B124" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C124" t="n">
         <v>3.397</v>
       </c>
       <c r="D124" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E124" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F124" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G124" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H124" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="B127" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C127" t="n">
         <v>3.288</v>
       </c>
       <c r="D127" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E127" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F127" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G127" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H127" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="B130" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C130" t="n">
         <v>3.602</v>
       </c>
       <c r="D130" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E130" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F130" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="B133" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C133" t="n">
         <v>4</v>
       </c>
       <c r="D133" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I133" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="B136" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C136" t="n">
         <v>4</v>
       </c>
       <c r="D136" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="B139" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C139" t="n">
         <v>3.833</v>
       </c>
       <c r="D139" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E139" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="B142" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C142" t="n">
         <v>4</v>
       </c>
       <c r="D142" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="B143" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C143" t="n">
         <v>4</v>
       </c>
       <c r="D143" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I143" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="B144" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C144" t="n">
         <v>4</v>
       </c>
       <c r="D144" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="B145" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C145" t="n">
         <v>3.857</v>
       </c>
       <c r="D145" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E145" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="B146" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C146" t="n">
         <v>3.729</v>
       </c>
       <c r="D146" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E146" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="B147" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C147" t="n">
         <v>3.881</v>
       </c>
       <c r="D147" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E147" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="B148" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C148" t="n">
         <v>4</v>
       </c>
       <c r="D148" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I148" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="B149" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C149" t="n">
         <v>3.762</v>
       </c>
       <c r="D149" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E149" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F149" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G149" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I149" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="B150" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C150" t="n">
         <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I150" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="B151" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C151" t="n">
         <v>3.7265</v>
       </c>
       <c r="D151" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E151" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F151" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G151" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="B152" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C152" t="n">
         <v>3.936</v>
       </c>
       <c r="D152" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E152" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="B153" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C153" t="n">
         <v>3.964</v>
       </c>
       <c r="D153" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E153" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I153" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="B154" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C154" t="n">
         <v>4</v>
       </c>
       <c r="D154" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I154" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="B157" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C157" t="n">
         <v>3.924</v>
       </c>
       <c r="D157" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E157" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I157" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="B160" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C160" t="n">
         <v>3.196</v>
       </c>
       <c r="D160" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E160" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F160" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G160" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H160" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I160" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="B163" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C163" t="n">
         <v>3.909</v>
       </c>
       <c r="D163" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E163" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I163" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="B166" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C166" t="n">
         <v>4</v>
       </c>
       <c r="D166" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I166" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="B169" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C169" t="n">
         <v>4</v>
       </c>
       <c r="D169" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I169" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="B172" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C172" t="n">
         <v>4</v>
       </c>
       <c r="D172" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I172" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="B173" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C173" t="n">
         <v>2.836</v>
       </c>
       <c r="D173" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E173" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F173" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G173" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="H173" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>248</v>
+      </c>
+      <c r="I173" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="B176" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C176" t="n">
         <v>2.9125</v>
       </c>
       <c r="D176" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="E176" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="F176" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="G176" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="H176" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I176" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="B179" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C179" t="n">
         <v>3.4352</v>
       </c>
       <c r="D179" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E179" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F179" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="G179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H179" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>260</v>
+      </c>
+      <c r="I179" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="B182" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C182" t="n">
         <v>3.596</v>
       </c>
       <c r="D182" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E182" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="F182" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="G182" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="H182" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I182" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="B185" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C185" t="n">
         <v>3.1</v>
       </c>
       <c r="D185" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E185" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="F185" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G185" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H185" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I185" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="B188" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C188" t="n">
         <v>3.833</v>
       </c>
       <c r="D188" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E188" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F188" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G188" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H188" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I188" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="B189" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C189" t="n">
         <v>3.525</v>
       </c>
       <c r="D189" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E189" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="F189" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="G189" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H189" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I189" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="B192" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C192" t="n">
         <v>4</v>
       </c>
       <c r="D192" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E192" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F192" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G192" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H192" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I192" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="B195" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C195" t="n">
         <v>3</v>
       </c>
       <c r="D195" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="E195" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F195" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="G195" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H195" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I195" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="B198" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C198" t="n">
         <v>3.288</v>
       </c>
       <c r="D198" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="E198" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F198" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="G198" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="H198" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>288</v>
+      </c>
+      <c r="I198" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="B199" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C199" t="n">
         <v>3.6</v>
       </c>
       <c r="D199" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E199" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F199" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G199" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I199" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="B202" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C202" t="n">
         <v>3.045</v>
       </c>
       <c r="D202" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="E202" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="F202" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="G202" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H202" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I202" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="B205" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C205" t="n">
         <v>3.282</v>
       </c>
       <c r="D205" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="E205" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F205" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="G205" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H205" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I205" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="B208" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="C208" t="n">
         <v>3.023</v>
       </c>
       <c r="D208" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="E208" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="F208" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="G208" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H208" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I208" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="B211" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C211" t="n">
         <v>3.9583</v>
       </c>
       <c r="D211" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="E211" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F211" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G211" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H211" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I211" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="B212" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="C212" t="n">
         <v>4</v>
       </c>
       <c r="D212" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E212" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F212" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G212" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H212" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I212" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="B213" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C213" t="n">
         <v>3.844</v>
       </c>
       <c r="D213" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="E213" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="F213" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="G213" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H213" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I213" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="B214" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C214" t="n">
         <v>4</v>
       </c>
       <c r="D214" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E214" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F214" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G214" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H214" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I214" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="B217" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C217" t="n">
         <v>2.732</v>
       </c>
       <c r="D217" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="E217" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="F217" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="G217" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="H217" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>315</v>
+      </c>
+      <c r="I217" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="B220" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C220" t="n">
         <v>4</v>
       </c>
       <c r="D220" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E220" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F220" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G220" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H220" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I220" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="B223" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C223" t="n">
         <v>3.333</v>
       </c>
       <c r="D223" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E223" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F223" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G223" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H223" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I223" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="B224" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C224" t="n">
         <v>2.6425</v>
       </c>
       <c r="D224" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="E224" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="F224" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G224" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="H224" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>324</v>
+      </c>
+      <c r="I224" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="B225" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C225" t="n">
         <v>2.175</v>
       </c>
       <c r="D225" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="E225" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="F225" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="G225" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H225" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I225" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="B228" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C228" t="n">
         <v>2.361</v>
       </c>
       <c r="D228" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E228" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F228" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="G228" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="H228" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I228" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="B231" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C231" t="n">
         <v>3.714</v>
       </c>
       <c r="D231" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="E231" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="F231" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G231" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H231" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I231" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="B234" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C234" t="n">
         <v>2.488</v>
       </c>
       <c r="D234" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E234" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="F234" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="G234" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="H234" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>340</v>
+      </c>
+      <c r="I234" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="B235" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C235" t="n">
         <v>3.692</v>
       </c>
       <c r="D235" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="E235" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="F235" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G235" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H235" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I235" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="B238" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C238" t="n">
         <v>3.6</v>
       </c>
       <c r="D238" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E238" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F238" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G238" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H238" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I238" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="B239" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C239" t="n">
         <v>4</v>
       </c>
       <c r="D239" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E239" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F239" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G239" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H239" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I239" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="A241" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="B242" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="C242" t="n">
         <v>3.958</v>
       </c>
       <c r="D242" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="E242" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F242" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G242" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H242" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I242" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="B243" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="C243" t="n">
         <v>3.25</v>
       </c>
       <c r="D243" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E243" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="F243" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G243" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H243" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I243" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="A245" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="B246" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="C246" t="n">
         <v>4</v>
       </c>
       <c r="D246" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E246" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F246" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G246" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H246" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I246" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
       <c r="A248" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="B249" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="C249" t="n">
         <v>2.655</v>
       </c>
       <c r="D249" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="E249" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="F249" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="G249" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="H249" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I249" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
       <c r="A251" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="B252" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C252" t="n">
         <v>2.8</v>
       </c>
       <c r="D252" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E252" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F252" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G252" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H252" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I252" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
       <c r="A254" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
       <c r="B255" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C255" t="n">
         <v>3.6</v>
       </c>
       <c r="D255" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E255" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F255" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G255" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H255" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I255" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="A257" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
       <c r="B258" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C258" t="n">
         <v>4</v>
       </c>
       <c r="D258" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E258" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F258" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G258" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H258" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I258" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
       <c r="A260" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
       <c r="B261" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="C261" t="n">
         <v>3.875</v>
       </c>
       <c r="D261" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="E261" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="F261" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G261" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H261" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I261" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
       <c r="A263" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
       <c r="B264" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="C264" t="n">
         <v>4</v>
       </c>
       <c r="D264" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E264" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F264" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G264" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H264" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I264" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
       <c r="A266" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
       <c r="B267" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="C267" t="n">
         <v>2.933</v>
       </c>
       <c r="D267" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="E267" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F267" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="G267" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="H267" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I267" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
       <c r="A269" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
       <c r="B270" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="C270" t="n">
         <v>3.954</v>
       </c>
       <c r="D270" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="E270" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F270" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G270" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H270" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I270" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
       <c r="A272" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
       <c r="B273" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C273" t="n">
         <v>2.992</v>
       </c>
       <c r="D273" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E273" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="F273" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="G273" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="H273" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I273" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
       <c r="A275" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
       <c r="B276" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C276" t="n">
         <v>4</v>
       </c>
       <c r="D276" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E276" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F276" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G276" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H276" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I276" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
       <c r="B277" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C277" t="n">
         <v>4</v>
       </c>
       <c r="D277" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E277" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F277" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G277" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H277" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I277" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
